--- a/Reports/Lobewise Comparisons/ResultsFinal/ggo.xlsx
+++ b/Reports/Lobewise Comparisons/ResultsFinal/ggo.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="109" documentId="11_F25DC773A252ABDACC1048CA799F592E5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E583E0FB-E302-4DE9-A5BB-606FF38F2787}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO_main" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +465,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
@@ -489,7 +488,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
@@ -515,7 +514,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
@@ -541,7 +540,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
@@ -564,7 +563,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
@@ -590,7 +589,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -613,7 +612,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -636,7 +635,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
@@ -659,7 +658,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
@@ -682,7 +681,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11">
@@ -708,7 +707,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12">
@@ -734,7 +733,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13">
@@ -760,7 +759,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -783,7 +782,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -806,7 +805,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16">
@@ -870,7 +869,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
@@ -893,7 +892,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
@@ -919,7 +918,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -942,7 +941,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -965,7 +964,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -988,7 +987,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
@@ -1011,7 +1010,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8">
@@ -1037,7 +1036,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9">
@@ -1063,7 +1062,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10">
@@ -1089,7 +1088,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
       <c r="B11">
@@ -1115,7 +1114,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -1138,7 +1137,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
@@ -1161,7 +1160,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14">
@@ -1187,7 +1186,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
@@ -1210,7 +1209,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16">

--- a/Reports/Lobewise Comparisons/ResultsFinal/ggo.xlsx
+++ b/Reports/Lobewise Comparisons/ResultsFinal/ggo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c2d16a148962151/Desktop/BIOSTAT/Thesis/Thesis/Reports/Lobewise Comparisons/ResultsFinal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="11_F25DC773A252ABDACC1048CA799F592E5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E583E0FB-E302-4DE9-A5BB-606FF38F2787}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABDACC1048CA799F592E5BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77016349-EA53-4117-8353-C7DFB5416287}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO_main" sheetId="1" r:id="rId1"/>
@@ -837,7 +837,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -900,12 +900,12 @@
         <v>3.0270008475602372</v>
       </c>
       <c r="C3">
+        <f>1/0.60858</f>
+        <v>1.643169345032699</v>
+      </c>
+      <c r="D3">
         <f>1/0.17933</f>
         <v>5.5763118273573857</v>
-      </c>
-      <c r="D3">
-        <f>1/0.60858</f>
-        <v>1.643169345032699</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1018,12 +1018,12 @@
         <v>1.7958479994253287</v>
       </c>
       <c r="C8">
+        <f>1/1.0531</f>
+        <v>0.94957743804007222</v>
+      </c>
+      <c r="D8">
         <f>1/0.29443</f>
         <v>3.3963930306015011</v>
-      </c>
-      <c r="D8">
-        <f>1/1.0531</f>
-        <v>0.94957743804007222</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1044,12 +1044,12 @@
         <v>1.7507615812878601</v>
       </c>
       <c r="C9">
+        <f>1/1.07933</f>
+        <v>0.92650069950802827</v>
+      </c>
+      <c r="D9">
         <f>1/0.30227</f>
         <v>3.3083005260197837</v>
-      </c>
-      <c r="D9">
-        <f>1/1.07933</f>
-        <v>0.92650069950802827</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1070,12 +1070,12 @@
         <v>1.4742087184703612</v>
       </c>
       <c r="C10">
+        <f>1/1.174</f>
+        <v>0.85178875638841567</v>
+      </c>
+      <c r="D10">
         <f>1/0.39194</f>
         <v>2.5514109302444252</v>
-      </c>
-      <c r="D10">
-        <f>1/1.174</f>
-        <v>0.85178875638841567</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1096,12 +1096,12 @@
         <v>1.4576197070184387</v>
       </c>
       <c r="C11">
+        <f>1/1.32001</f>
+        <v>0.75757001840895155</v>
+      </c>
+      <c r="D11">
         <f>1/0.35656</f>
         <v>2.8045770697778778</v>
-      </c>
-      <c r="D11">
-        <f>1/1.32001</f>
-        <v>0.75757001840895155</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1168,12 +1168,12 @@
         <v>1.2320429736589211</v>
       </c>
       <c r="C14">
+        <f>1/1.49179</f>
+        <v>0.67033563705347265</v>
+      </c>
+      <c r="D14">
         <f>1/0.44161</f>
         <v>2.2644414755100652</v>
-      </c>
-      <c r="D14">
-        <f>1/1.49179</f>
-        <v>0.67033563705347265</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1217,12 +1217,12 @@
         <v>1.0257567520438202</v>
       </c>
       <c r="C16">
+        <f>1/1.91611</f>
+        <v>0.5218907056484231</v>
+      </c>
+      <c r="D16">
         <f>1/0.49601</f>
         <v>2.0160883853148124</v>
-      </c>
-      <c r="D16">
-        <f>1/1.91611</f>
-        <v>0.5218907056484231</v>
       </c>
       <c r="E16">
         <v>0</v>
